--- a/db_gen/elevator_config.xlsx
+++ b/db_gen/elevator_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="REDLERS" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="CONFIG" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="REDLERS" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="NORIAS" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="GATES" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="FANS" sheetId="5" state="visible" r:id="rId7"/>
@@ -24,14 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+  <si>
+    <t xml:space="preserve">Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevator_System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назва проекту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxSlots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум слотів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Версія конфігурації</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slot</t>
   </si>
   <si>
@@ -144,45 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Резерв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProjectName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elevator_System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Назва проекту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxSlots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум слотів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineering Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Версія конфігурації</t>
   </si>
   <si>
     <t xml:space="preserve">DI_UpperLevel</t>
@@ -406,32 +406,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,18 +566,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,171 +589,55 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="4" t="n">
+        <v>256</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Звичайний"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Звичайний"&amp;12Сторінка &amp;P</oddFooter>
@@ -756,73 +650,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="17.65"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="J3" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>256</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="J4" s="3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Звичайний"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Звичайний"&amp;12Сторінка &amp;P</oddFooter>
@@ -845,25 +858,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>53</v>
@@ -872,95 +885,95 @@
         <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6"/>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -981,26 +994,29 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.38"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>71</v>
@@ -1018,83 +1034,83 @@
         <v>75</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="3" t="n">
         <v>15000</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="3" t="n">
         <v>15000</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6"/>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1114,81 +1130,73 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="4" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/db_gen/elevator_config.xlsx
+++ b/db_gen/elevator_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" state="visible" r:id="rId3"/>
@@ -523,10 +523,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="A:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -579,7 +583,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="A:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,11 +698,14 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="A:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="13.92"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -817,10 +824,13 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A:G I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="14.01"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -929,11 +939,14 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="A:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="16.65"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
